--- a/RCA.xlsx
+++ b/RCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jchugh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B25B9D-9968-46F5-A50C-B33D02549077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90CABD0-92B4-4999-B17C-35F04D896550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="5670" xr2:uid="{2192ACC9-5840-4BB0-873A-CB0A9AE31B71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{2192ACC9-5840-4BB0-873A-CB0A9AE31B71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>RCA_Number</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t>Impact_category</t>
+  </si>
+  <si>
+    <t>RCA_20190920_Highlight_Newsletter_Dual_Deployment</t>
+  </si>
+  <si>
+    <t>Newsletter Dual Deployment</t>
+  </si>
+  <si>
+    <t>EMOPs</t>
+  </si>
+  <si>
+    <t>RCA_20191206_OEM_Highlights_Partial_Deployment</t>
+  </si>
+  <si>
+    <t>Highlights Partial Deployment</t>
+  </si>
+  <si>
+    <t>RCA_20191112_SXM_QUAD_Print_Quality</t>
+  </si>
+  <si>
+    <t>Gray Shade on GAWB Wave 5 letters</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>DMOPs</t>
   </si>
 </sst>
 </file>
@@ -205,13 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,15 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3656C6BF-2CBC-4C1F-B813-EF49079B94EE}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
@@ -545,7 +573,7 @@
     <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -926,6 +954,120 @@
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43728</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43791</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43791</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1900000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43808</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43812</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3385989</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43753</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43776</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/RCA.xlsx
+++ b/RCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jchugh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90CABD0-92B4-4999-B17C-35F04D896550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A2420-85F9-498D-BE54-1DB005426612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{2192ACC9-5840-4BB0-873A-CB0A9AE31B71}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>RCA_Number</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>DMOPs</t>
+  </si>
+  <si>
+    <t>Issue_Cause_Division_Act</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3656C6BF-2CBC-4C1F-B813-EF49079B94EE}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B12"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,9 +577,10 @@
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -611,10 +615,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -651,8 +658,11 @@
       <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -689,8 +699,11 @@
       <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -727,8 +740,11 @@
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -765,8 +781,11 @@
       <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -803,8 +822,11 @@
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -841,8 +863,11 @@
       <c r="L7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -879,8 +904,11 @@
       <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -917,8 +945,11 @@
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -955,8 +986,11 @@
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -993,8 +1027,11 @@
       <c r="L11" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1031,8 +1068,11 @@
       <c r="L12" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1067,6 +1107,9 @@
         <v>15</v>
       </c>
       <c r="L13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
